--- a/PCAstatic/PCAstatic_predicted_factors_matrix_9.xlsx
+++ b/PCAstatic/PCAstatic_predicted_factors_matrix_9.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E10"/>
+  <dimension ref="A1:AU10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -449,6 +449,132 @@
       <c r="E1" s="1" t="n">
         <v>4</v>
       </c>
+      <c r="F1" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="O1" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="P1" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="R1" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="S1" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="T1" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="U1" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="V1" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="W1" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="X1" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="Y1" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="Z1" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="AA1" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="AB1" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="AC1" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="AD1" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="AE1" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="AF1" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="AG1" s="1" t="n">
+        <v>32</v>
+      </c>
+      <c r="AH1" s="1" t="n">
+        <v>33</v>
+      </c>
+      <c r="AI1" s="1" t="n">
+        <v>34</v>
+      </c>
+      <c r="AJ1" s="1" t="n">
+        <v>35</v>
+      </c>
+      <c r="AK1" s="1" t="n">
+        <v>36</v>
+      </c>
+      <c r="AL1" s="1" t="n">
+        <v>37</v>
+      </c>
+      <c r="AM1" s="1" t="n">
+        <v>38</v>
+      </c>
+      <c r="AN1" s="1" t="n">
+        <v>39</v>
+      </c>
+      <c r="AO1" s="1" t="n">
+        <v>40</v>
+      </c>
+      <c r="AP1" s="1" t="n">
+        <v>41</v>
+      </c>
+      <c r="AQ1" s="1" t="n">
+        <v>42</v>
+      </c>
+      <c r="AR1" s="1" t="n">
+        <v>43</v>
+      </c>
+      <c r="AS1" s="1" t="n">
+        <v>44</v>
+      </c>
+      <c r="AT1" s="1" t="n">
+        <v>45</v>
+      </c>
+      <c r="AU1" s="1" t="n">
+        <v>46</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -466,6 +592,132 @@
       <c r="E2" t="n">
         <v>-4.32695204073611</v>
       </c>
+      <c r="F2" t="n">
+        <v>-3.938149488466022</v>
+      </c>
+      <c r="G2" t="n">
+        <v>-3.540771126634108</v>
+      </c>
+      <c r="H2" t="n">
+        <v>-3.143840683333087</v>
+      </c>
+      <c r="I2" t="n">
+        <v>-2.754891652613554</v>
+      </c>
+      <c r="J2" t="n">
+        <v>-2.380085078206319</v>
+      </c>
+      <c r="K2" t="n">
+        <v>-2.024323446507854</v>
+      </c>
+      <c r="L2" t="n">
+        <v>-1.691363908670081</v>
+      </c>
+      <c r="M2" t="n">
+        <v>-1.383931023013247</v>
+      </c>
+      <c r="N2" t="n">
+        <v>-1.10382884779475</v>
+      </c>
+      <c r="O2" t="n">
+        <v>-0.8520516868385825</v>
+      </c>
+      <c r="P2" t="n">
+        <v>-0.6288924630488706</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>-0.4340475277525361</v>
+      </c>
+      <c r="R2" t="n">
+        <v>-0.2667166935765787</v>
+      </c>
+      <c r="S2" t="n">
+        <v>-0.1256973756269794</v>
+      </c>
+      <c r="T2" t="n">
+        <v>-0.00947190579391549</v>
+      </c>
+      <c r="U2" t="n">
+        <v>0.08371268635690773</v>
+      </c>
+      <c r="V2" t="n">
+        <v>0.1557728858941235</v>
+      </c>
+      <c r="W2" t="n">
+        <v>0.2087251169707895</v>
+      </c>
+      <c r="X2" t="n">
+        <v>0.2446303800751671</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>0.2655469167131784</v>
+      </c>
+      <c r="Z2" t="n">
+        <v>0.2734905662725149</v>
+      </c>
+      <c r="AA2" t="n">
+        <v>0.2704023657705989</v>
+      </c>
+      <c r="AB2" t="n">
+        <v>0.2581228619944842</v>
+      </c>
+      <c r="AC2" t="n">
+        <v>0.2383725528558837</v>
+      </c>
+      <c r="AD2" t="n">
+        <v>0.2127378458530599</v>
+      </c>
+      <c r="AE2" t="n">
+        <v>0.1826619117940393</v>
+      </c>
+      <c r="AF2" t="n">
+        <v>0.1494398173521914</v>
+      </c>
+      <c r="AG2" t="n">
+        <v>0.1142173371877304</v>
+      </c>
+      <c r="AH2" t="n">
+        <v>0.07799287248742345</v>
+      </c>
+      <c r="AI2" t="n">
+        <v>0.04162193559425347</v>
+      </c>
+      <c r="AJ2" t="n">
+        <v>0.00582369809233545</v>
+      </c>
+      <c r="AK2" t="n">
+        <v>-0.02881085921932509</v>
+      </c>
+      <c r="AL2" t="n">
+        <v>-0.06180961284323976</v>
+      </c>
+      <c r="AM2" t="n">
+        <v>-0.09280915373400846</v>
+      </c>
+      <c r="AN2" t="n">
+        <v>-0.1215441648716167</v>
+      </c>
+      <c r="AO2" t="n">
+        <v>-0.1478366053737992</v>
+      </c>
+      <c r="AP2" t="n">
+        <v>-0.1715849449659095</v>
+      </c>
+      <c r="AQ2" t="n">
+        <v>-0.1927324531512273</v>
+      </c>
+      <c r="AR2" t="n">
+        <v>-0.2113211561113698</v>
+      </c>
+      <c r="AS2" t="n">
+        <v>-0.2274181681293482</v>
+      </c>
+      <c r="AT2" t="n">
+        <v>-0.2411286802382081</v>
+      </c>
+      <c r="AU2" t="n">
+        <v>-0.2525875296120374</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -483,6 +735,132 @@
       <c r="E3" t="n">
         <v>-1.114679919522841</v>
       </c>
+      <c r="F3" t="n">
+        <v>-1.069382463262889</v>
+      </c>
+      <c r="G3" t="n">
+        <v>-1.012497623600249</v>
+      </c>
+      <c r="H3" t="n">
+        <v>-0.9472446802395534</v>
+      </c>
+      <c r="I3" t="n">
+        <v>-0.8763500597810837</v>
+      </c>
+      <c r="J3" t="n">
+        <v>-0.8021301903734761</v>
+      </c>
+      <c r="K3" t="n">
+        <v>-0.7265551798552806</v>
+      </c>
+      <c r="L3" t="n">
+        <v>-0.651294758222989</v>
+      </c>
+      <c r="M3" t="n">
+        <v>-0.5777509213997497</v>
+      </c>
+      <c r="N3" t="n">
+        <v>-0.5070816381674799</v>
+      </c>
+      <c r="O3" t="n">
+        <v>-0.440219389067213</v>
+      </c>
+      <c r="P3" t="n">
+        <v>-0.3778874149667641</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>-0.3206156150042837</v>
+      </c>
+      <c r="R3" t="n">
+        <v>-0.2687571818603728</v>
+      </c>
+      <c r="S3" t="n">
+        <v>-0.2225063726421746</v>
+      </c>
+      <c r="T3" t="n">
+        <v>-0.1819173171400852</v>
+      </c>
+      <c r="U3" t="n">
+        <v>-0.1469234588914397</v>
+      </c>
+      <c r="V3" t="n">
+        <v>-0.117357082089003</v>
+      </c>
+      <c r="W3" t="n">
+        <v>-0.09296836003579298</v>
+      </c>
+      <c r="X3" t="n">
+        <v>-0.07344342654468271</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>-0.05842108224263391</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>-0.04750787295481714</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>-0.04029139637919944</v>
+      </c>
+      <c r="AB3" t="n">
+        <v>-0.03635179409168326</v>
+      </c>
+      <c r="AC3" t="n">
+        <v>-0.03527146360495567</v>
+      </c>
+      <c r="AD3" t="n">
+        <v>-0.03664307975499563</v>
+      </c>
+      <c r="AE3" t="n">
+        <v>-0.04007604905070882</v>
+      </c>
+      <c r="AF3" t="n">
+        <v>-0.04520153903817765</v>
+      </c>
+      <c r="AG3" t="n">
+        <v>-0.05167623160612813</v>
+      </c>
+      <c r="AH3" t="n">
+        <v>-0.05918494838212952</v>
+      </c>
+      <c r="AI3" t="n">
+        <v>-0.06744229099927346</v>
+      </c>
+      <c r="AJ3" t="n">
+        <v>-0.07619343122828345</v>
+      </c>
+      <c r="AK3" t="n">
+        <v>-0.0852141771629786</v>
+      </c>
+      <c r="AL3" t="n">
+        <v>-0.09431043259682741</v>
+      </c>
+      <c r="AM3" t="n">
+        <v>-0.103317157786381</v>
+      </c>
+      <c r="AN3" t="n">
+        <v>-0.1120969310549401</v>
+      </c>
+      <c r="AO3" t="n">
+        <v>-0.1205382021103813</v>
+      </c>
+      <c r="AP3" t="n">
+        <v>-0.1285533194608259</v>
+      </c>
+      <c r="AQ3" t="n">
+        <v>-0.1360225980622257</v>
+      </c>
+      <c r="AR3" t="n">
+        <v>-0.1429495455081796</v>
+      </c>
+      <c r="AS3" t="n">
+        <v>-0.1493091268218401</v>
+      </c>
+      <c r="AT3" t="n">
+        <v>-0.1550879366841595</v>
+      </c>
+      <c r="AU3" t="n">
+        <v>-0.1602850815198772</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -500,6 +878,132 @@
       <c r="E4" t="n">
         <v>0.09711827418902712</v>
       </c>
+      <c r="F4" t="n">
+        <v>0.1499476931379816</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0.1847163501801311</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0.203751142551737</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0.2092230832604622</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0.2031386915319729</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0.1873448137949162</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0.1635373816224184</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0.1332698000569725</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0.09795921024756948</v>
+      </c>
+      <c r="O4" t="n">
+        <v>0.05889045332059926</v>
+      </c>
+      <c r="P4" t="n">
+        <v>0.01721836568937408</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>-0.0260306638365016</v>
+      </c>
+      <c r="R4" t="n">
+        <v>-0.06995696167499996</v>
+      </c>
+      <c r="S4" t="n">
+        <v>-0.1137849425081888</v>
+      </c>
+      <c r="T4" t="n">
+        <v>-0.1568591374173512</v>
+      </c>
+      <c r="U4" t="n">
+        <v>-0.1986386992296142</v>
+      </c>
+      <c r="V4" t="n">
+        <v>-0.2386904383837071</v>
+      </c>
+      <c r="W4" t="n">
+        <v>-0.2766806104258332</v>
+      </c>
+      <c r="X4" t="n">
+        <v>-0.3123657759125412</v>
+      </c>
+      <c r="Y4" t="n">
+        <v>-0.3455830921240796</v>
+      </c>
+      <c r="Z4" t="n">
+        <v>-0.376240387182245</v>
+      </c>
+      <c r="AA4" t="n">
+        <v>-0.404306326604462</v>
+      </c>
+      <c r="AB4" t="n">
+        <v>-0.4298009246428275</v>
+      </c>
+      <c r="AC4" t="n">
+        <v>-0.4527865897451985</v>
+      </c>
+      <c r="AD4" t="n">
+        <v>-0.4733598334289208</v>
+      </c>
+      <c r="AE4" t="n">
+        <v>-0.4916437197154244</v>
+      </c>
+      <c r="AF4" t="n">
+        <v>-0.5077810902165599</v>
+      </c>
+      <c r="AG4" t="n">
+        <v>-0.521928568187298</v>
+      </c>
+      <c r="AH4" t="n">
+        <v>-0.5342513223264173</v>
+      </c>
+      <c r="AI4" t="n">
+        <v>-0.5449185561699912</v>
+      </c>
+      <c r="AJ4" t="n">
+        <v>-0.5540996797805461</v>
+      </c>
+      <c r="AK4" t="n">
+        <v>-0.5619611154222596</v>
+      </c>
+      <c r="AL4" t="n">
+        <v>-0.5686636866531857</v>
+      </c>
+      <c r="AM4" t="n">
+        <v>-0.5743605397215749</v>
+      </c>
+      <c r="AN4" t="n">
+        <v>-0.5791955466110917</v>
+      </c>
+      <c r="AO4" t="n">
+        <v>-0.5833021400961228</v>
+      </c>
+      <c r="AP4" t="n">
+        <v>-0.5868025325044951</v>
+      </c>
+      <c r="AQ4" t="n">
+        <v>-0.5895462573005072</v>
+      </c>
+      <c r="AR4" t="n">
+        <v>-0.5918991389515813</v>
+      </c>
+      <c r="AS4" t="n">
+        <v>-0.5939478302372523</v>
+      </c>
+      <c r="AT4" t="n">
+        <v>-0.595767731304629</v>
+      </c>
+      <c r="AU4" t="n">
+        <v>-0.5974233195623712</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -517,6 +1021,132 @@
       <c r="E5" t="n">
         <v>0.05367382532936539</v>
       </c>
+      <c r="F5" t="n">
+        <v>0.2098976983153849</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0.3238205443319835</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0.402440145236341</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0.4519208375746457</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0.4776560513243437</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0.4843408802557411</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0.4760445680441746</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0.4562783104204542</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0.4280560639337251</v>
+      </c>
+      <c r="O5" t="n">
+        <v>0.3939478789758493</v>
+      </c>
+      <c r="P5" t="n">
+        <v>0.3561263698282646</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>0.3164074703967823</v>
+      </c>
+      <c r="R5" t="n">
+        <v>0.2762867564384217</v>
+      </c>
+      <c r="S5" t="n">
+        <v>0.2369724928083564</v>
+      </c>
+      <c r="T5" t="n">
+        <v>0.1994163103112171</v>
+      </c>
+      <c r="U5" t="n">
+        <v>0.1643421226636944</v>
+      </c>
+      <c r="V5" t="n">
+        <v>0.1322736206883278</v>
+      </c>
+      <c r="W5" t="n">
+        <v>0.103560462179448</v>
+      </c>
+      <c r="X5" t="n">
+        <v>0.07840312480084592</v>
+      </c>
+      <c r="Y5" t="n">
+        <v>0.05687630393371754</v>
+      </c>
+      <c r="Z5" t="n">
+        <v>0.03895070675266114</v>
+      </c>
+      <c r="AA5" t="n">
+        <v>0.02451310323133581</v>
+      </c>
+      <c r="AB5" t="n">
+        <v>0.01338452929902122</v>
+      </c>
+      <c r="AC5" t="n">
+        <v>0.005336584069201402</v>
+      </c>
+      <c r="AD5" t="n">
+        <v>0.0001058121607646406</v>
+      </c>
+      <c r="AE5" t="n">
+        <v>-0.002593792837253518</v>
+      </c>
+      <c r="AF5" t="n">
+        <v>-0.003060090296969455</v>
+      </c>
+      <c r="AG5" t="n">
+        <v>-0.001593797938570734</v>
+      </c>
+      <c r="AH5" t="n">
+        <v>0.001508921022175377</v>
+      </c>
+      <c r="AI5" t="n">
+        <v>0.005962422757884149</v>
+      </c>
+      <c r="AJ5" t="n">
+        <v>0.01149623940703099</v>
+      </c>
+      <c r="AK5" t="n">
+        <v>0.01785856810585713</v>
+      </c>
+      <c r="AL5" t="n">
+        <v>0.02481873085042244</v>
+      </c>
+      <c r="AM5" t="n">
+        <v>0.03216873873202519</v>
+      </c>
+      <c r="AN5" t="n">
+        <v>0.03972408758730948</v>
+      </c>
+      <c r="AO5" t="n">
+        <v>0.04732390448752383</v>
+      </c>
+      <c r="AP5" t="n">
+        <v>0.05483055614251769</v>
+      </c>
+      <c r="AQ5" t="n">
+        <v>0.06208387076889389</v>
+      </c>
+      <c r="AR5" t="n">
+        <v>0.06903444098635139</v>
+      </c>
+      <c r="AS5" t="n">
+        <v>0.07560768499493684</v>
+      </c>
+      <c r="AT5" t="n">
+        <v>0.08174825109773574</v>
+      </c>
+      <c r="AU5" t="n">
+        <v>0.08741728307127318</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -534,6 +1164,132 @@
       <c r="E6" t="n">
         <v>-0.1005155461657389</v>
       </c>
+      <c r="F6" t="n">
+        <v>-0.1484725918929512</v>
+      </c>
+      <c r="G6" t="n">
+        <v>-0.1895847615065067</v>
+      </c>
+      <c r="H6" t="n">
+        <v>-0.223848189020069</v>
+      </c>
+      <c r="I6" t="n">
+        <v>-0.2514636922533377</v>
+      </c>
+      <c r="J6" t="n">
+        <v>-0.2727554415778604</v>
+      </c>
+      <c r="K6" t="n">
+        <v>-0.2881170651492764</v>
+      </c>
+      <c r="L6" t="n">
+        <v>-0.2979807245117547</v>
+      </c>
+      <c r="M6" t="n">
+        <v>-0.3028022731919487</v>
+      </c>
+      <c r="N6" t="n">
+        <v>-0.3030556814782425</v>
+      </c>
+      <c r="O6" t="n">
+        <v>-0.2992312909282497</v>
+      </c>
+      <c r="P6" t="n">
+        <v>-0.2918341863699747</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>-0.2813806305127917</v>
+      </c>
+      <c r="R6" t="n">
+        <v>-0.2683918730655778</v>
+      </c>
+      <c r="S6" t="n">
+        <v>-0.2533856291262393</v>
+      </c>
+      <c r="T6" t="n">
+        <v>-0.2368661077032986</v>
+      </c>
+      <c r="U6" t="n">
+        <v>-0.219313703247452</v>
+      </c>
+      <c r="V6" t="n">
+        <v>-0.2011754197716406</v>
+      </c>
+      <c r="W6" t="n">
+        <v>-0.1828568739229725</v>
+      </c>
+      <c r="X6" t="n">
+        <v>-0.1647164138027415</v>
+      </c>
+      <c r="Y6" t="n">
+        <v>-0.1470615719118452</v>
+      </c>
+      <c r="Z6" t="n">
+        <v>-0.1301477970049293</v>
+      </c>
+      <c r="AA6" t="n">
+        <v>-0.1141792094917144</v>
+      </c>
+      <c r="AB6" t="n">
+        <v>-0.09931100555176924</v>
+      </c>
+      <c r="AC6" t="n">
+        <v>-0.08565308838813734</v>
+      </c>
+      <c r="AD6" t="n">
+        <v>-0.07327451463642524</v>
+      </c>
+      <c r="AE6" t="n">
+        <v>-0.06220839074955514</v>
+      </c>
+      <c r="AF6" t="n">
+        <v>-0.05245692041502736</v>
+      </c>
+      <c r="AG6" t="n">
+        <v>-0.04399637558088031</v>
+      </c>
+      <c r="AH6" t="n">
+        <v>-0.03678183074491064</v>
+      </c>
+      <c r="AI6" t="n">
+        <v>-0.0307515572643167</v>
+      </c>
+      <c r="AJ6" t="n">
+        <v>-0.02583101940774493</v>
+      </c>
+      <c r="AK6" t="n">
+        <v>-0.02193644689115453</v>
+      </c>
+      <c r="AL6" t="n">
+        <v>-0.01897798129146395</v>
+      </c>
+      <c r="AM6" t="n">
+        <v>-0.01686240819988586</v>
+      </c>
+      <c r="AN6" t="n">
+        <v>-0.01549549549739753</v>
+      </c>
+      <c r="AO6" t="n">
+        <v>-0.01478396267129213</v>
+      </c>
+      <c r="AP6" t="n">
+        <v>-0.0146371081827703</v>
+      </c>
+      <c r="AQ6" t="n">
+        <v>-0.01494450892346991</v>
+      </c>
+      <c r="AR6" t="n">
+        <v>-0.01564955042964196</v>
+      </c>
+      <c r="AS6" t="n">
+        <v>-0.01667438468510085</v>
+      </c>
+      <c r="AT6" t="n">
+        <v>-0.01794802606754381</v>
+      </c>
+      <c r="AU6" t="n">
+        <v>-0.01940628761389974</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -551,6 +1307,132 @@
       <c r="E7" t="n">
         <v>0.02649229893533208</v>
       </c>
+      <c r="F7" t="n">
+        <v>-0.008398988065544143</v>
+      </c>
+      <c r="G7" t="n">
+        <v>-0.03977195548820739</v>
+      </c>
+      <c r="H7" t="n">
+        <v>-0.06738855695942306</v>
+      </c>
+      <c r="I7" t="n">
+        <v>-0.09122072070358736</v>
+      </c>
+      <c r="J7" t="n">
+        <v>-0.1113536954843701</v>
+      </c>
+      <c r="K7" t="n">
+        <v>-0.1279261980919539</v>
+      </c>
+      <c r="L7" t="n">
+        <v>-0.1410962450128181</v>
+      </c>
+      <c r="M7" t="n">
+        <v>-0.1510272364151145</v>
+      </c>
+      <c r="N7" t="n">
+        <v>-0.1578872579717145</v>
+      </c>
+      <c r="O7" t="n">
+        <v>-0.1618553734376426</v>
+      </c>
+      <c r="P7" t="n">
+        <v>-0.1631298960355707</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>-0.1619350397428225</v>
+      </c>
+      <c r="R7" t="n">
+        <v>-0.1585237972524088</v>
+      </c>
+      <c r="S7" t="n">
+        <v>-0.1531762507881492</v>
+      </c>
+      <c r="T7" t="n">
+        <v>-0.1461936565496673</v>
+      </c>
+      <c r="U7" t="n">
+        <v>-0.1378894297886939</v>
+      </c>
+      <c r="V7" t="n">
+        <v>-0.1285785367851711</v>
+      </c>
+      <c r="W7" t="n">
+        <v>-0.118566801943287</v>
+      </c>
+      <c r="X7" t="n">
+        <v>-0.1081413645021741</v>
+      </c>
+      <c r="Y7" t="n">
+        <v>-0.09756310275327122</v>
+      </c>
+      <c r="Z7" t="n">
+        <v>-0.0870614065131</v>
+      </c>
+      <c r="AA7" t="n">
+        <v>-0.07683130682903853</v>
+      </c>
+      <c r="AB7" t="n">
+        <v>-0.06703270822450313</v>
+      </c>
+      <c r="AC7" t="n">
+        <v>-0.05779131981788518</v>
+      </c>
+      <c r="AD7" t="n">
+        <v>-0.04920083075220758</v>
+      </c>
+      <c r="AE7" t="n">
+        <v>-0.04132589537429005</v>
+      </c>
+      <c r="AF7" t="n">
+        <v>-0.03420555616512709</v>
+      </c>
+      <c r="AG7" t="n">
+        <v>-0.02785681355493412</v>
+      </c>
+      <c r="AH7" t="n">
+        <v>-0.02227813407359242</v>
+      </c>
+      <c r="AI7" t="n">
+        <v>-0.01745276111063386</v>
+      </c>
+      <c r="AJ7" t="n">
+        <v>-0.01335175080828283</v>
+      </c>
+      <c r="AK7" t="n">
+        <v>-0.009936698255791835</v>
+      </c>
+      <c r="AL7" t="n">
+        <v>-0.007162147677530381</v>
+      </c>
+      <c r="AM7" t="n">
+        <v>-0.004977697443555683</v>
+      </c>
+      <c r="AN7" t="n">
+        <v>-0.003329819546283103</v>
+      </c>
+      <c r="AO7" t="n">
+        <v>-0.002163416508381158</v>
+      </c>
+      <c r="AP7" t="n">
+        <v>-0.001423138810897564</v>
+      </c>
+      <c r="AQ7" t="n">
+        <v>-0.001038785734536163</v>
+      </c>
+      <c r="AR7" t="n">
+        <v>-0.0009773052128443243</v>
+      </c>
+      <c r="AS7" t="n">
+        <v>-0.001184544555179557</v>
+      </c>
+      <c r="AT7" t="n">
+        <v>-0.001612425297937912</v>
+      </c>
+      <c r="AU7" t="n">
+        <v>-0.002216563095130688</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -568,6 +1450,132 @@
       <c r="E8" t="n">
         <v>-0.05328426313044785</v>
       </c>
+      <c r="F8" t="n">
+        <v>-0.1350140773238908</v>
+      </c>
+      <c r="G8" t="n">
+        <v>-0.2068286841316865</v>
+      </c>
+      <c r="H8" t="n">
+        <v>-0.26803243286664</v>
+      </c>
+      <c r="I8" t="n">
+        <v>-0.3183528107106258</v>
+      </c>
+      <c r="J8" t="n">
+        <v>-0.3578929634567874</v>
+      </c>
+      <c r="K8" t="n">
+        <v>-0.3870702051779124</v>
+      </c>
+      <c r="L8" t="n">
+        <v>-0.406549693739193</v>
+      </c>
+      <c r="M8" t="n">
+        <v>-0.4171782963863364</v>
+      </c>
+      <c r="N8" t="n">
+        <v>-0.4199225687584133</v>
+      </c>
+      <c r="O8" t="n">
+        <v>-0.4158133074545314</v>
+      </c>
+      <c r="P8" t="n">
+        <v>-0.405898147884723</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>-0.3912029959854465</v>
+      </c>
+      <c r="R8" t="n">
+        <v>-0.3727025325995062</v>
+      </c>
+      <c r="S8" t="n">
+        <v>-0.3512994997245384</v>
+      </c>
+      <c r="T8" t="n">
+        <v>-0.3278119619666326</v>
+      </c>
+      <c r="U8" t="n">
+        <v>-0.302967302685824</v>
+      </c>
+      <c r="V8" t="n">
+        <v>-0.2774014461395226</v>
+      </c>
+      <c r="W8" t="n">
+        <v>-0.2516617415093927</v>
+      </c>
+      <c r="X8" t="n">
+        <v>-0.2262120903331191</v>
+      </c>
+      <c r="Y8" t="n">
+        <v>-0.2014391845600861</v>
+      </c>
+      <c r="Z8" t="n">
+        <v>-0.1776590658073829</v>
+      </c>
+      <c r="AA8" t="n">
+        <v>-0.1551235424189596</v>
+      </c>
+      <c r="AB8" t="n">
+        <v>-0.1340262600818171</v>
+      </c>
+      <c r="AC8" t="n">
+        <v>-0.1145083943115906</v>
+      </c>
+      <c r="AD8" t="n">
+        <v>-0.09666402353200704</v>
+      </c>
+      <c r="AE8" t="n">
+        <v>-0.08054526837427609</v>
+      </c>
+      <c r="AF8" t="n">
+        <v>-0.0661672694716379</v>
+      </c>
+      <c r="AG8" t="n">
+        <v>-0.05351304359180585</v>
+      </c>
+      <c r="AH8" t="n">
+        <v>-0.04253822215446746</v>
+      </c>
+      <c r="AI8" t="n">
+        <v>-0.03317564657267807</v>
+      </c>
+      <c r="AJ8" t="n">
+        <v>-0.02533977570307634</v>
+      </c>
+      <c r="AK8" t="n">
+        <v>-0.01893085250743338</v>
+      </c>
+      <c r="AL8" t="n">
+        <v>-0.01383877813659611</v>
+      </c>
+      <c r="AM8" t="n">
+        <v>-0.009946649415662097</v>
+      </c>
+      <c r="AN8" t="n">
+        <v>-0.00713392739967767</v>
+      </c>
+      <c r="AO8" t="n">
+        <v>-0.005279217922852954</v>
+      </c>
+      <c r="AP8" t="n">
+        <v>-0.004262658104734359</v>
+      </c>
+      <c r="AQ8" t="n">
+        <v>-0.003944291699122109</v>
+      </c>
+      <c r="AR8" t="n">
+        <v>-0.004237881085875707</v>
+      </c>
+      <c r="AS8" t="n">
+        <v>-0.005037556885981046</v>
+      </c>
+      <c r="AT8" t="n">
+        <v>-0.006244239819539573</v>
+      </c>
+      <c r="AU8" t="n">
+        <v>-0.007767511092766396</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -585,6 +1593,132 @@
       <c r="E9" t="n">
         <v>0.02099362631350074</v>
       </c>
+      <c r="F9" t="n">
+        <v>0.01807851353377194</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0.0155120166690813</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0.01325110130231856</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0.01126589475488553</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0.009530674461434805</v>
+      </c>
+      <c r="K9" t="n">
+        <v>0.008023001043536161</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0.006722465830926222</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0.005610028731032189</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0.004667672276782676</v>
+      </c>
+      <c r="O9" t="n">
+        <v>0.003878266999340525</v>
+      </c>
+      <c r="P9" t="n">
+        <v>0.003225554964799783</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>0.002694187219122548</v>
+      </c>
+      <c r="R9" t="n">
+        <v>0.002269774220612059</v>
+      </c>
+      <c r="S9" t="n">
+        <v>0.001938926701022398</v>
+      </c>
+      <c r="T9" t="n">
+        <v>0.001689277246253675</v>
+      </c>
+      <c r="U9" t="n">
+        <v>0.001509480917681423</v>
+      </c>
+      <c r="V9" t="n">
+        <v>0.001389197535222188</v>
+      </c>
+      <c r="W9" t="n">
+        <v>0.001319059964674038</v>
+      </c>
+      <c r="X9" t="n">
+        <v>0.001290632891075279</v>
+      </c>
+      <c r="Y9" t="n">
+        <v>0.001296365876540917</v>
+      </c>
+      <c r="Z9" t="n">
+        <v>0.001329543514630423</v>
+      </c>
+      <c r="AA9" t="n">
+        <v>0.00138423452051148</v>
+      </c>
+      <c r="AB9" t="n">
+        <v>0.001455240800420305</v>
+      </c>
+      <c r="AC9" t="n">
+        <v>0.001538046983421878</v>
+      </c>
+      <c r="AD9" t="n">
+        <v>0.001628770566262322</v>
+      </c>
+      <c r="AE9" t="n">
+        <v>0.001724112676457621</v>
+      </c>
+      <c r="AF9" t="n">
+        <v>0.001821309444435659</v>
+      </c>
+      <c r="AG9" t="n">
+        <v>0.001918084038183067</v>
+      </c>
+      <c r="AH9" t="n">
+        <v>0.002012599507604499</v>
+      </c>
+      <c r="AI9" t="n">
+        <v>0.002103412677183285</v>
+      </c>
+      <c r="AJ9" t="n">
+        <v>0.002189429393671637</v>
+      </c>
+      <c r="AK9" t="n">
+        <v>0.002269861470690315</v>
+      </c>
+      <c r="AL9" t="n">
+        <v>0.002344185673063867</v>
+      </c>
+      <c r="AM9" t="n">
+        <v>0.002412105054927676</v>
+      </c>
+      <c r="AN9" t="n">
+        <v>0.002473512914583015</v>
+      </c>
+      <c r="AO9" t="n">
+        <v>0.002528459564257805</v>
+      </c>
+      <c r="AP9" t="n">
+        <v>0.00257712204221464</v>
+      </c>
+      <c r="AQ9" t="n">
+        <v>0.002617299236395018</v>
+      </c>
+      <c r="AR9" t="n">
+        <v>0.002653791559212215</v>
+      </c>
+      <c r="AS9" t="n">
+        <v>0.002684641928764569</v>
+      </c>
+      <c r="AT9" t="n">
+        <v>0.002710761418485603</v>
+      </c>
+      <c r="AU9" t="n">
+        <v>0.002732582385125677</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -601,6 +1735,132 @@
       </c>
       <c r="E10" t="n">
         <v>0.01317985513283398</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0.01020917039382105</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0.008259234202737928</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0.007094060090837854</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0.006514740932236399</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0.006358897569846492</v>
+      </c>
+      <c r="K10" t="n">
+        <v>0.006494555267764724</v>
+      </c>
+      <c r="L10" t="n">
+        <v>0.006815915668150483</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0.007239608094624617</v>
+      </c>
+      <c r="N10" t="n">
+        <v>0.007701368898355734</v>
+      </c>
+      <c r="O10" t="n">
+        <v>0.008153051919526789</v>
+      </c>
+      <c r="P10" t="n">
+        <v>0.008559942812004081</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>0.008898370122891869</v>
+      </c>
+      <c r="R10" t="n">
+        <v>0.009153609403569777</v>
+      </c>
+      <c r="S10" t="n">
+        <v>0.009318070850163746</v>
+      </c>
+      <c r="T10" t="n">
+        <v>0.009389752955014496</v>
+      </c>
+      <c r="U10" t="n">
+        <v>0.009370938039032457</v>
+      </c>
+      <c r="V10" t="n">
+        <v>0.00926710178765696</v>
+      </c>
+      <c r="W10" t="n">
+        <v>0.009086008100098901</v>
+      </c>
+      <c r="X10" t="n">
+        <v>0.008836962052372849</v>
+      </c>
+      <c r="Y10" t="n">
+        <v>0.008530196712606707</v>
+      </c>
+      <c r="Z10" t="n">
+        <v>0.008176373127216675</v>
+      </c>
+      <c r="AA10" t="n">
+        <v>0.007786176395741172</v>
+      </c>
+      <c r="AB10" t="n">
+        <v>0.007369993965157589</v>
+      </c>
+      <c r="AC10" t="n">
+        <v>0.006937664895432562</v>
+      </c>
+      <c r="AD10" t="n">
+        <v>0.006498290827250883</v>
+      </c>
+      <c r="AE10" t="n">
+        <v>0.006060100776852879</v>
+      </c>
+      <c r="AF10" t="n">
+        <v>0.005630362807735111</v>
+      </c>
+      <c r="AG10" t="n">
+        <v>0.005215336222122972</v>
+      </c>
+      <c r="AH10" t="n">
+        <v>0.004820258308201875</v>
+      </c>
+      <c r="AI10" t="n">
+        <v>0.004449359981044105</v>
+      </c>
+      <c r="AJ10" t="n">
+        <v>0.004105904944691117</v>
+      </c>
+      <c r="AK10" t="n">
+        <v>0.003792247327796194</v>
+      </c>
+      <c r="AL10" t="n">
+        <v>0.003509903126700417</v>
+      </c>
+      <c r="AM10" t="n">
+        <v>0.003259631228560695</v>
+      </c>
+      <c r="AN10" t="n">
+        <v>0.003041520270722042</v>
+      </c>
+      <c r="AO10" t="n">
+        <v>0.002855078101642984</v>
+      </c>
+      <c r="AP10" t="n">
+        <v>0.002699321122391916</v>
+      </c>
+      <c r="AQ10" t="n">
+        <v>0.002570445617651785</v>
+      </c>
+      <c r="AR10" t="n">
+        <v>0.002468579957173945</v>
+      </c>
+      <c r="AS10" t="n">
+        <v>0.002392785540503943</v>
+      </c>
+      <c r="AT10" t="n">
+        <v>0.002340470592350297</v>
+      </c>
+      <c r="AU10" t="n">
+        <v>0.002309341546875358</v>
       </c>
     </row>
   </sheetData>

--- a/PCAstatic/PCAstatic_predicted_factors_matrix_9.xlsx
+++ b/PCAstatic/PCAstatic_predicted_factors_matrix_9.xlsx
@@ -443,74 +443,74 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>-5.530608004071357</v>
+        <v>-1.480903045476927</v>
       </c>
       <c r="B2" t="n">
-        <v>-5.328370792723048</v>
+        <v>-1.282556239139729</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>-1.181417640058193</v>
+        <v>-0.4855914895904065</v>
       </c>
       <c r="B3" t="n">
-        <v>-1.134032615629251</v>
+        <v>-0.616898906967759</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>-0.3341830441150748</v>
+        <v>-0.8648869244303575</v>
       </c>
       <c r="B4" t="n">
-        <v>-0.194609480451419</v>
+        <v>-0.7311905286725847</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>-1.172809036889829</v>
+        <v>-0.7655245086053081</v>
       </c>
       <c r="B5" t="n">
-        <v>-0.7524480139950284</v>
+        <v>-0.6893182275130685</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>0.1450685548639447</v>
+        <v>0.8181679629558203</v>
       </c>
       <c r="B6" t="n">
-        <v>0.07580498463246929</v>
+        <v>0.642404867836407</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>0.2018418462525772</v>
+        <v>-0.07037208432078354</v>
       </c>
       <c r="B7" t="n">
-        <v>0.1468105929441677</v>
+        <v>0.04498653625319461</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>0.3462887571469211</v>
+        <v>0.7822745837455743</v>
       </c>
       <c r="B8" t="n">
-        <v>0.2380027749815277</v>
+        <v>0.5771386703682702</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>0.09120052756755795</v>
+        <v>0.3163357981425192</v>
       </c>
       <c r="B9" t="n">
-        <v>0.03188963527091888</v>
+        <v>0.3009017501146894</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>0.03231742765321593</v>
+        <v>-0.181234671156298</v>
       </c>
       <c r="B10" t="n">
-        <v>0.03101384518214472</v>
+        <v>-0.04247692004725151</v>
       </c>
     </row>
   </sheetData>

--- a/PCAstatic/PCAstatic_predicted_factors_matrix_9.xlsx
+++ b/PCAstatic/PCAstatic_predicted_factors_matrix_9.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B10"/>
+  <dimension ref="A1:S10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -440,13 +440,115 @@
       <c r="B1" s="1" t="n">
         <v>1</v>
       </c>
+      <c r="C1" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="O1" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="P1" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="R1" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="S1" s="1" t="n">
+        <v>18</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
         <v>-1.480903045476927</v>
       </c>
       <c r="B2" t="n">
-        <v>-1.282556239139729</v>
+        <v>-121.5592544627844</v>
+      </c>
+      <c r="C2" t="n">
+        <v>2777.808973089336</v>
+      </c>
+      <c r="D2" t="n">
+        <v>-1017185.709682778</v>
+      </c>
+      <c r="E2" t="n">
+        <v>-344006896.1473777</v>
+      </c>
+      <c r="F2" t="n">
+        <v>-103709972236.8029</v>
+      </c>
+      <c r="G2" t="n">
+        <v>-32694983906755.07</v>
+      </c>
+      <c r="H2" t="n">
+        <v>-9946055428936678</v>
+      </c>
+      <c r="I2" t="n">
+        <v>-2.926678623701723e+18</v>
+      </c>
+      <c r="J2" t="n">
+        <v>-8.264077668890969e+20</v>
+      </c>
+      <c r="K2" t="n">
+        <v>-2.233502841900283e+23</v>
+      </c>
+      <c r="L2" t="n">
+        <v>-5.825481534232958e+25</v>
+      </c>
+      <c r="M2" t="n">
+        <v>-1.482122921501744e+28</v>
+      </c>
+      <c r="N2" t="n">
+        <v>-3.719552921869309e+30</v>
+      </c>
+      <c r="O2" t="n">
+        <v>-9.248835222912685e+32</v>
+      </c>
+      <c r="P2" t="n">
+        <v>-2.282012773812682e+35</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>-5.601725944671883e+37</v>
+      </c>
+      <c r="R2" t="n">
+        <v>-1.372222639999925e+40</v>
+      </c>
+      <c r="S2" t="n">
+        <v>-3.361230837901019e+42</v>
       </c>
     </row>
     <row r="3">
@@ -454,7 +556,58 @@
         <v>-0.4855914895904065</v>
       </c>
       <c r="B3" t="n">
-        <v>-0.616898906967759</v>
+        <v>-90.69354582789906</v>
+      </c>
+      <c r="C3" t="n">
+        <v>-21280.35822952988</v>
+      </c>
+      <c r="D3" t="n">
+        <v>-3764114.467708148</v>
+      </c>
+      <c r="E3" t="n">
+        <v>-712954158.3450221</v>
+      </c>
+      <c r="F3" t="n">
+        <v>-141746398721.9241</v>
+      </c>
+      <c r="G3" t="n">
+        <v>-28744072495983.19</v>
+      </c>
+      <c r="H3" t="n">
+        <v>-5580186383448543</v>
+      </c>
+      <c r="I3" t="n">
+        <v>1.069445459045515e+18</v>
+      </c>
+      <c r="J3" t="n">
+        <v>2.01806315208504e+20</v>
+      </c>
+      <c r="K3" t="n">
+        <v>3.718391227447426e+22</v>
+      </c>
+      <c r="L3" t="n">
+        <v>6.58451267420044e+24</v>
+      </c>
+      <c r="M3" t="n">
+        <v>1.091480892376277e+27</v>
+      </c>
+      <c r="N3" t="n">
+        <v>1.620874578261838e+29</v>
+      </c>
+      <c r="O3" t="n">
+        <v>1.996947962530244e+31</v>
+      </c>
+      <c r="P3" t="n">
+        <v>1.703424193583329e+33</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>2.607964637620652e+34</v>
+      </c>
+      <c r="R3" t="n">
+        <v>-2.008135934309138e+37</v>
+      </c>
+      <c r="S3" t="n">
+        <v>-4.188132591009532e+39</v>
       </c>
     </row>
     <row r="4">
@@ -462,7 +615,58 @@
         <v>-0.8648869244303575</v>
       </c>
       <c r="B4" t="n">
-        <v>-0.7311905286725847</v>
+        <v>-31.13633990902814</v>
+      </c>
+      <c r="C4" t="n">
+        <v>838.5747913679421</v>
+      </c>
+      <c r="D4" t="n">
+        <v>273259.5363351647</v>
+      </c>
+      <c r="E4" t="n">
+        <v>53010327.71610133</v>
+      </c>
+      <c r="F4" t="n">
+        <v>6996209971.512486</v>
+      </c>
+      <c r="G4" t="n">
+        <v>309219857383.739</v>
+      </c>
+      <c r="H4" t="n">
+        <v>62771173841893.77</v>
+      </c>
+      <c r="I4" t="n">
+        <v>1.042884018776264e+16</v>
+      </c>
+      <c r="J4" t="n">
+        <v>2.608252981001226e+18</v>
+      </c>
+      <c r="K4" t="n">
+        <v>8.501123969211375e+20</v>
+      </c>
+      <c r="L4" t="n">
+        <v>2.416466976019896e+23</v>
+      </c>
+      <c r="M4" t="n">
+        <v>5.399066648541362e+25</v>
+      </c>
+      <c r="N4" t="n">
+        <v>8.993224201043989e+27</v>
+      </c>
+      <c r="O4" t="n">
+        <v>1.113280859336926e+30</v>
+      </c>
+      <c r="P4" t="n">
+        <v>1.621389977351868e+32</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>2.75748350581296e+34</v>
+      </c>
+      <c r="R4" t="n">
+        <v>5.082803758589798e+36</v>
+      </c>
+      <c r="S4" t="n">
+        <v>1.0006357628924e+39</v>
       </c>
     </row>
     <row r="5">
@@ -470,7 +674,58 @@
         <v>-0.7655245086053081</v>
       </c>
       <c r="B5" t="n">
-        <v>-0.6893182275130685</v>
+        <v>80.23780963334247</v>
+      </c>
+      <c r="C5" t="n">
+        <v>11522.26123747383</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1664005.294244543</v>
+      </c>
+      <c r="E5" t="n">
+        <v>318306463.4002275</v>
+      </c>
+      <c r="F5" t="n">
+        <v>62047171741.65491</v>
+      </c>
+      <c r="G5" t="n">
+        <v>11870156377952.14</v>
+      </c>
+      <c r="H5" t="n">
+        <v>2124924677926470</v>
+      </c>
+      <c r="I5" t="n">
+        <v>3.601166444320488e+17</v>
+      </c>
+      <c r="J5" t="n">
+        <v>5.549394333161024e+19</v>
+      </c>
+      <c r="K5" t="n">
+        <v>-7.343829807055889e+21</v>
+      </c>
+      <c r="L5" t="n">
+        <v>-7.716832150274646e+23</v>
+      </c>
+      <c r="M5" t="n">
+        <v>-6.220221206850858e+25</v>
+      </c>
+      <c r="N5" t="n">
+        <v>-6.232944522279856e+27</v>
+      </c>
+      <c r="O5" t="n">
+        <v>-1.04739599279895e+30</v>
+      </c>
+      <c r="P5" t="n">
+        <v>-1.748744398895217e+32</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>-2.990226615854182e+34</v>
+      </c>
+      <c r="R5" t="n">
+        <v>-5.349152240225448e+36</v>
+      </c>
+      <c r="S5" t="n">
+        <v>-9.881660133425248e+38</v>
       </c>
     </row>
     <row r="6">
@@ -478,7 +733,58 @@
         <v>0.8181679629558203</v>
       </c>
       <c r="B6" t="n">
-        <v>0.642404867836407</v>
+        <v>-5.6232409639559</v>
+      </c>
+      <c r="C6" t="n">
+        <v>-268.0640415392552</v>
+      </c>
+      <c r="D6" t="n">
+        <v>-961469.1651698819</v>
+      </c>
+      <c r="E6" t="n">
+        <v>-133546853.2188774</v>
+      </c>
+      <c r="F6" t="n">
+        <v>-16355890288.34651</v>
+      </c>
+      <c r="G6" t="n">
+        <v>-1656044614538.986</v>
+      </c>
+      <c r="H6" t="n">
+        <v>-83202397267473.38</v>
+      </c>
+      <c r="I6" t="n">
+        <v>6008522633030285</v>
+      </c>
+      <c r="J6" t="n">
+        <v>1.755105277949506e+18</v>
+      </c>
+      <c r="K6" t="n">
+        <v>2.250759861277053e+20</v>
+      </c>
+      <c r="L6" t="n">
+        <v>2.796688075655854e+22</v>
+      </c>
+      <c r="M6" t="n">
+        <v>3.322547827566536e+24</v>
+      </c>
+      <c r="N6" t="n">
+        <v>4.100164879753889e+26</v>
+      </c>
+      <c r="O6" t="n">
+        <v>4.970875534171225e+28</v>
+      </c>
+      <c r="P6" t="n">
+        <v>5.591891587893419e+30</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>6.304192230930971e+32</v>
+      </c>
+      <c r="R6" t="n">
+        <v>8.41841375600317e+34</v>
+      </c>
+      <c r="S6" t="n">
+        <v>1.37299822835378e+37</v>
       </c>
     </row>
     <row r="7">
@@ -486,7 +792,58 @@
         <v>-0.07037208432078354</v>
       </c>
       <c r="B7" t="n">
-        <v>0.04498653625319461</v>
+        <v>20.77339085752706</v>
+      </c>
+      <c r="C7" t="n">
+        <v>2609.876900858518</v>
+      </c>
+      <c r="D7" t="n">
+        <v>-601687.9114706508</v>
+      </c>
+      <c r="E7" t="n">
+        <v>-108191722.4250622</v>
+      </c>
+      <c r="F7" t="n">
+        <v>-17401141470.24742</v>
+      </c>
+      <c r="G7" t="n">
+        <v>-2499118350055.768</v>
+      </c>
+      <c r="H7" t="n">
+        <v>276872727581647.8</v>
+      </c>
+      <c r="I7" t="n">
+        <v>1.708658829274763e+16</v>
+      </c>
+      <c r="J7" t="n">
+        <v>5.413537600851999e+17</v>
+      </c>
+      <c r="K7" t="n">
+        <v>5.505678993520241e+19</v>
+      </c>
+      <c r="L7" t="n">
+        <v>4.701343071490384e+21</v>
+      </c>
+      <c r="M7" t="n">
+        <v>4.723805845598788e+23</v>
+      </c>
+      <c r="N7" t="n">
+        <v>1.112774812047412e+26</v>
+      </c>
+      <c r="O7" t="n">
+        <v>3.031804507203552e+28</v>
+      </c>
+      <c r="P7" t="n">
+        <v>6.757424881188894e+30</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>1.307507028514066e+33</v>
+      </c>
+      <c r="R7" t="n">
+        <v>2.271399892552665e+35</v>
+      </c>
+      <c r="S7" t="n">
+        <v>3.715199914502639e+37</v>
       </c>
     </row>
     <row r="8">
@@ -494,7 +851,58 @@
         <v>0.7822745837455743</v>
       </c>
       <c r="B8" t="n">
-        <v>0.5771386703682702</v>
+        <v>43.16752242003437</v>
+      </c>
+      <c r="C8" t="n">
+        <v>4434.361105549477</v>
+      </c>
+      <c r="D8" t="n">
+        <v>528856.4045736367</v>
+      </c>
+      <c r="E8" t="n">
+        <v>88881164.96017835</v>
+      </c>
+      <c r="F8" t="n">
+        <v>13590830587.378</v>
+      </c>
+      <c r="G8" t="n">
+        <v>1670926818754.38</v>
+      </c>
+      <c r="H8" t="n">
+        <v>124600585803050.9</v>
+      </c>
+      <c r="I8" t="n">
+        <v>6370694037626960</v>
+      </c>
+      <c r="J8" t="n">
+        <v>8.404583188034369e+17</v>
+      </c>
+      <c r="K8" t="n">
+        <v>1.152429103074764e+20</v>
+      </c>
+      <c r="L8" t="n">
+        <v>1.548560225483103e+22</v>
+      </c>
+      <c r="M8" t="n">
+        <v>2.05738465207628e+24</v>
+      </c>
+      <c r="N8" t="n">
+        <v>2.72689067157504e+26</v>
+      </c>
+      <c r="O8" t="n">
+        <v>3.500482228388961e+28</v>
+      </c>
+      <c r="P8" t="n">
+        <v>4.410681982650064e+30</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>5.774161108608019e+32</v>
+      </c>
+      <c r="R8" t="n">
+        <v>8.366227992681905e+34</v>
+      </c>
+      <c r="S8" t="n">
+        <v>1.320680571607295e+37</v>
       </c>
     </row>
     <row r="9">
@@ -502,7 +910,58 @@
         <v>0.3163357981425192</v>
       </c>
       <c r="B9" t="n">
-        <v>0.3009017501146894</v>
+        <v>-2.744557949047001</v>
+      </c>
+      <c r="C9" t="n">
+        <v>2648.503706746102</v>
+      </c>
+      <c r="D9" t="n">
+        <v>-446894.2149934262</v>
+      </c>
+      <c r="E9" t="n">
+        <v>-59400395.72407319</v>
+      </c>
+      <c r="F9" t="n">
+        <v>-1128517323.28072</v>
+      </c>
+      <c r="G9" t="n">
+        <v>12654739385.53328</v>
+      </c>
+      <c r="H9" t="n">
+        <v>6179936163243.298</v>
+      </c>
+      <c r="I9" t="n">
+        <v>1016328027904584</v>
+      </c>
+      <c r="J9" t="n">
+        <v>1.870595368202227e+17</v>
+      </c>
+      <c r="K9" t="n">
+        <v>2.893798215281247e+19</v>
+      </c>
+      <c r="L9" t="n">
+        <v>4.185517830743708e+21</v>
+      </c>
+      <c r="M9" t="n">
+        <v>5.679869948222145e+23</v>
+      </c>
+      <c r="N9" t="n">
+        <v>7.265792357703855e+25</v>
+      </c>
+      <c r="O9" t="n">
+        <v>8.937014315594083e+27</v>
+      </c>
+      <c r="P9" t="n">
+        <v>1.071438807129191e+30</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>1.320974117073374e+32</v>
+      </c>
+      <c r="R9" t="n">
+        <v>1.760939912615795e+34</v>
+      </c>
+      <c r="S9" t="n">
+        <v>2.495097595017076e+36</v>
       </c>
     </row>
     <row r="10">
@@ -510,7 +969,58 @@
         <v>-0.181234671156298</v>
       </c>
       <c r="B10" t="n">
-        <v>-0.04247692004725151</v>
+        <v>11.38771465310792</v>
+      </c>
+      <c r="C10" t="n">
+        <v>1412.545960659133</v>
+      </c>
+      <c r="D10" t="n">
+        <v>-181806.6644184996</v>
+      </c>
+      <c r="E10" t="n">
+        <v>-13553113.04389903</v>
+      </c>
+      <c r="F10" t="n">
+        <v>-6014831282.594634</v>
+      </c>
+      <c r="G10" t="n">
+        <v>-252207082374.3945</v>
+      </c>
+      <c r="H10" t="n">
+        <v>-24206756185922.07</v>
+      </c>
+      <c r="I10" t="n">
+        <v>-1789325734880360</v>
+      </c>
+      <c r="J10" t="n">
+        <v>-1.228840771994948e+17</v>
+      </c>
+      <c r="K10" t="n">
+        <v>-4.577693535780102e+18</v>
+      </c>
+      <c r="L10" t="n">
+        <v>9.613712292958112e+20</v>
+      </c>
+      <c r="M10" t="n">
+        <v>2.829493769786673e+23</v>
+      </c>
+      <c r="N10" t="n">
+        <v>4.793188493753477e+25</v>
+      </c>
+      <c r="O10" t="n">
+        <v>7.114915725028255e+27</v>
+      </c>
+      <c r="P10" t="n">
+        <v>1.025376963657714e+30</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>1.428897740610232e+32</v>
+      </c>
+      <c r="R10" t="n">
+        <v>1.930748959025767e+34</v>
+      </c>
+      <c r="S10" t="n">
+        <v>2.562197713343738e+36</v>
       </c>
     </row>
   </sheetData>
